--- a/TestList/6.0sdstudy.xlsx
+++ b/TestList/6.0sdstudy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12090"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>序号
 （id）</t>
@@ -75,7 +75,7 @@
     <t>输入</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div[2]/div[2]/div/div[2]/div[2]/div[2]/form/ul/li[1]/input</t>
+    <t>//input[@ng-model="model.use.useName"]</t>
   </si>
   <si>
     <t>231003197211203540</t>
@@ -84,7 +84,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div[2]/div[2]/div/div[2]/div[2]/div[2]/form/ul/li[2]/input</t>
+    <t>//input[@ng-model="model.use.password"]</t>
   </si>
   <si>
     <t>000000</t>
@@ -93,7 +93,7 @@
     <t>confirmpassword</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div[2]/div[2]/div/div[2]/div[2]/div[2]/form/ul/li[3]/input</t>
+    <t>//input[@ng-model="model.code"]</t>
   </si>
   <si>
     <t>code</t>
@@ -102,13 +102,10 @@
     <t>!$#2</t>
   </si>
   <si>
-    <t>click</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div[2]/div[2]/div/div[2]/div[2]/div[2]/form/ul/li[4]/button</t>
+    <t>//button[@class="btn-normal btn-login login-btn-style ng-binding"]</t>
   </si>
   <si>
     <t>重跑</t>
@@ -129,6 +126,12 @@
     <t>/html/body/div[1]/div/div[2]/div[2]/div/div[2]/div[2]/div/div/a[1]</t>
   </si>
   <si>
+    <t>my class</t>
+  </si>
+  <si>
+    <t>//*[@id="contentView"]/div/div[1]/ul/li[1]/a</t>
+  </si>
+  <si>
     <t>enterclass</t>
   </si>
   <si>
@@ -153,7 +156,37 @@
     <t>//*[@id="lesson_player_box_container_new_hwCloud_dom_baby"]/button</t>
   </si>
   <si>
-    <t>wait play</t>
+    <t>javajs</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>var alpha = 30;var x=document.getElementsByClassName("vjs-control-bar")[0];x.style.opacity = alpha;</t>
+  </si>
+  <si>
+    <t>play1</t>
+  </si>
+  <si>
+    <t>//*[@id="lesson_player_box_container_new_hwCloud_dom_baby"]/div[4]/div[2]/span[2]</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>Compair video1</t>
+  </si>
+  <si>
+    <t>比较</t>
+  </si>
+  <si>
+    <t>不等</t>
+  </si>
+  <si>
+    <t>play2</t>
+  </si>
+  <si>
+    <t>Compair video2</t>
   </si>
 </sst>
 </file>
@@ -161,8 +194,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -183,6 +216,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -191,10 +320,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,119 +351,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,13 +361,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,169 +469,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,13 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,50 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,16 +617,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,131 +670,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1296,47 +1329,47 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1347,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1355,8 +1388,8 @@
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
+      <c r="E11" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1367,7 +1400,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1376,7 +1409,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1387,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1396,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1407,7 +1440,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1416,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1427,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1436,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1447,42 +1480,122 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C6 C7 C8 C9 C10 C11 C12 C13 C14 C16 C4:C5 C17:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D65526">
+      <formula1>"xpath,name,id,css,text"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C6 C7 C8 C9 C10 C11 C12 C13 C14 C4:C5 C19:C20">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D7 D8 D9 D10 D12 D14 D16 D5:D6 D17:D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D7 D8 D9 D12 D14 D16 D5:D6 D19:D20 D21:D27">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C30">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D65528">
-      <formula1>"xpath,name,id,css,text"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29">
       <formula1>"URL、Xpath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://sdjy.59iedu.com/" tooltip="http://sdjy.59iedu.com/"/>
-    <hyperlink ref="E12" r:id="rId2" display="http://sdjy.59iedu.com/center/myRealClass/778a14426281458b80f32bf0c2f83879"/>
+    <hyperlink ref="E12" r:id="rId1" display="http://sdjy.59iedu.com/center/myRealClass/778a14426281458b80f32bf0c2f83879"/>
+    <hyperlink ref="E2" r:id="rId2" display="http://sdjy.59iedu.com/" tooltip="http://sdjy.59iedu.com/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TestList/6.0sdstudy.xlsx
+++ b/TestList/6.0sdstudy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>序号
 （id）</t>
@@ -120,25 +120,19 @@
     <t>null</t>
   </si>
   <si>
-    <t>studycenter</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div[2]/div[2]/div/div[2]/div[2]/div/div/a[1]</t>
-  </si>
-  <si>
-    <t>my class</t>
-  </si>
-  <si>
-    <t>//*[@id="contentView"]/div/div[1]/ul/li[1]/a</t>
-  </si>
-  <si>
     <t>enterclass</t>
   </si>
   <si>
     <t>http://sdjy.59iedu.com/center/myRealClass/778a14426281458b80f32bf0c2f83879</t>
   </si>
   <si>
-    <t>clickplay</t>
+    <t>finished learning</t>
+  </si>
+  <si>
+    <t>//div[@class="sub-tab-tit mt5"]/a[2]</t>
+  </si>
+  <si>
+    <t>finished learning play</t>
   </si>
   <si>
     <t>//*[@id="contentView"]/div[4]/div[2]/div[3]/table/tbody/tr/td[7]/a</t>
@@ -196,8 +190,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -224,7 +218,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +268,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,98 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +338,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -361,6 +355,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,175 +421,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,54 +560,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +590,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -658,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,131 +664,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,10 +1152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1355,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1363,19 +1357,19 @@
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1395,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1403,17 +1397,15 @@
         <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -1423,12 +1415,12 @@
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1443,12 +1435,12 @@
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1463,13 +1455,13 @@
         <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>43</v>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1480,19 +1472,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1500,19 +1492,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1520,19 +1512,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>10</v>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1540,62 +1532,41 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>48</v>
+      <c r="E19" t="s">
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D65526">
-      <formula1>"xpath,name,id,css,text"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C6 C7 C8 C9 C10 C11 C12 C13 C14 C4:C5 C19:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C6 C7 C8 C9 C10 C13 C4:C5 C11:C12 C18:C19">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D7 D8 D9 D12 D14 D16 D5:D6 D19:D20 D21:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D7 D8 D9 D10 D13 D15 D5:D6 D11:D12 D18:D19 D20:D26">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C29">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:D28">
       <formula1>"URL、Xpath"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D65525">
+      <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" display="http://sdjy.59iedu.com/center/myRealClass/778a14426281458b80f32bf0c2f83879"/>
-    <hyperlink ref="E2" r:id="rId2" display="http://sdjy.59iedu.com/" tooltip="http://sdjy.59iedu.com/"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://sdjy.59iedu.com/" tooltip="http://sdjy.59iedu.com/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
